--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved ra</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_8</t>
@@ -259,10 +262,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -569,7 +572,7 @@
         <v>-6.8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -578,13 +581,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="12" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -593,7 +596,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">2SJ28_3</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved mb</t>
+  </si>
+  <si>
     <t xml:space="preserve">2SJ28_4</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t xml:space="preserve">2SK82_7</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved ra</t>
+    <t xml:space="preserve">sold ra</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_8</t>
@@ -262,10 +265,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -369,7 +372,7 @@
         <v>5.828</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
@@ -378,7 +381,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="n">
         <v>7.158</v>
@@ -393,7 +396,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12" t="n">
         <v>5.922</v>
@@ -408,7 +411,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>7.81</v>
@@ -423,7 +426,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="12" t="n">
         <v>8.196</v>
@@ -438,13 +441,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12" t="n">
         <v>5.662</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1"/>
@@ -453,7 +456,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="n">
         <v>9.786</v>
@@ -476,7 +479,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12" t="n">
         <v>-5.877</v>
@@ -491,7 +494,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12" t="n">
         <v>-4.925</v>
@@ -506,7 +509,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="12" t="n">
         <v>-5.969</v>
@@ -521,7 +524,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="12" t="n">
         <v>-5.671</v>
@@ -536,7 +539,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="n">
         <v>-6.124</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>-6.511</v>
@@ -566,13 +569,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="12" t="n">
         <v>-6.8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -581,13 +584,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="12" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -596,7 +599,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">2SJ28_3</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved mb</t>
+    <t xml:space="preserve">reserved</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_4</t>
@@ -109,7 +109,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +145,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +250,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -265,10 +280,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -485,7 +500,7 @@
         <v>-5.877</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
@@ -515,7 +530,7 @@
         <v>-5.969</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
@@ -568,13 +583,13 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="15" t="n">
         <v>-6.8</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="13"/>
@@ -583,13 +598,13 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="15" t="n">
         <v>-6.585</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="13"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved ha</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_6</t>
@@ -280,10 +283,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -560,7 +563,7 @@
         <v>-6.124</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
@@ -569,13 +572,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>-6.511</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="1"/>
@@ -584,13 +587,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>-6.8</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -599,13 +602,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -614,7 +617,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">2SK82_5</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved ha</t>
+    <t xml:space="preserve">sold ha</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_6</t>
@@ -286,7 +286,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -40,10 +40,13 @@
     <t xml:space="preserve">2SJ28_1</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -283,10 +286,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -375,7 +378,7 @@
         <v>8.687</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
@@ -384,13 +387,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12" t="n">
         <v>5.828</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
@@ -399,13 +402,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="n">
         <v>7.158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="1"/>
@@ -414,13 +417,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="12" t="n">
         <v>5.922</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="1"/>
@@ -429,7 +432,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>7.81</v>
@@ -444,13 +447,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="n">
         <v>8.196</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1"/>
@@ -459,13 +462,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="n">
         <v>5.662</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1"/>
@@ -474,13 +477,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="n">
         <v>9.786</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1"/>
@@ -497,13 +500,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12" t="n">
         <v>-5.877</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
@@ -512,7 +515,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12" t="n">
         <v>-4.925</v>
@@ -527,13 +530,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12" t="n">
         <v>-5.969</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
@@ -542,7 +545,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12" t="n">
         <v>-5.671</v>
@@ -557,13 +560,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12" t="n">
         <v>-6.124</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
@@ -572,13 +575,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>-6.511</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="1"/>
@@ -587,13 +590,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>-6.8</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -602,13 +605,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -617,13 +620,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="1"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -40,13 +40,10 @@
     <t xml:space="preserve">2SJ28_1</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved ch</t>
+    <t xml:space="preserve">available</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">available</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -286,10 +283,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -378,7 +375,7 @@
         <v>8.687</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
@@ -387,13 +384,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="n">
         <v>5.828</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
@@ -402,13 +399,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="n">
         <v>7.158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="1"/>
@@ -417,13 +414,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12" t="n">
         <v>5.922</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="1"/>
@@ -432,7 +429,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>7.81</v>
@@ -447,13 +444,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="12" t="n">
         <v>8.196</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1"/>
@@ -462,13 +459,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12" t="n">
         <v>5.662</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1"/>
@@ -477,13 +474,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="n">
         <v>9.786</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1"/>
@@ -500,13 +497,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12" t="n">
         <v>-5.877</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
@@ -515,7 +512,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12" t="n">
         <v>-4.925</v>
@@ -530,13 +527,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="12" t="n">
         <v>-5.969</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
@@ -545,7 +542,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="12" t="n">
         <v>-5.671</v>
@@ -560,13 +557,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="n">
         <v>-6.124</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
@@ -575,13 +572,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>-6.511</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="1"/>
@@ -590,13 +587,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>-6.8</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -605,13 +602,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -620,13 +617,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="1"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -40,10 +40,13 @@
     <t xml:space="preserve">2SJ28_1</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved dh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -283,10 +286,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -375,7 +378,7 @@
         <v>8.687</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
@@ -384,13 +387,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12" t="n">
         <v>5.828</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
@@ -399,13 +402,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="n">
         <v>7.158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="1"/>
@@ -414,13 +417,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="12" t="n">
         <v>5.922</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="1"/>
@@ -429,7 +432,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>7.81</v>
@@ -444,13 +447,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="n">
         <v>8.196</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1"/>
@@ -459,13 +462,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="n">
         <v>5.662</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1"/>
@@ -474,13 +477,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="n">
         <v>9.786</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1"/>
@@ -497,13 +500,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12" t="n">
         <v>-5.877</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11"/>
@@ -512,13 +515,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12" t="n">
         <v>-4.925</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1"/>
@@ -527,13 +530,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12" t="n">
         <v>-5.969</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="11"/>
@@ -542,13 +545,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12" t="n">
         <v>-5.671</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="11"/>
@@ -557,13 +560,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12" t="n">
         <v>-6.124</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
@@ -572,13 +575,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="12" t="n">
         <v>-6.511</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="1"/>
@@ -587,13 +590,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>-6.8</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="11"/>
@@ -602,13 +605,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>-6.585</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
@@ -617,13 +620,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>-6.358</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="1"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LD1014 List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sony 2SK82 2SJ28 List" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -201,68 +201,72 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,14 +283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,348 +298,348 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="AMI1" s="3"/>
+      <c r="AMJ1" s="3"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="AMI2" s="3"/>
+      <c r="AMJ2" s="3"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="AMI3" s="3"/>
+      <c r="AMJ3" s="3"/>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="AMI4" s="3"/>
+      <c r="AMJ4" s="3"/>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="AMI6" s="3"/>
+      <c r="AMJ6" s="3"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="AMI7" s="3"/>
+      <c r="AMJ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>7.582</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>8.687</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>5.828</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>7.158</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="13" t="n">
         <v>5.922</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="13" t="n">
         <v>7.81</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="13" t="n">
         <v>8.196</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="13" t="n">
         <v>5.662</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="13" t="n">
         <v>9.786</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="13" t="n">
         <v>-5.877</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="13" t="n">
         <v>-4.925</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="13" t="n">
         <v>-5.969</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="13" t="n">
         <v>-5.671</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="13" t="n">
         <v>-6.124</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="13" t="n">
         <v>-6.511</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="16" t="n">
         <v>-6.8</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="16" t="n">
         <v>-6.585</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="13" t="n">
         <v>-6.358</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="C26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -104,6 +104,36 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_19</t>
   </si>
 </sst>
 </file>
@@ -201,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +297,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:C23"/>
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,8 +672,114 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="17" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="17" t="n">
+        <v>-5.445</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="17" t="n">
+        <v>-6.519</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="17" t="n">
+        <v>-4.094</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="17" t="n">
+        <v>-7.285</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="17" t="n">
+        <v>-5.612</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="17" t="n">
+        <v>-6.101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="17" t="n">
+        <v>-6.62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="17" t="n">
+        <v>-4.964</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="17" t="n">
+        <v>-7.778</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_25</t>
   </si>
 </sst>
 </file>
@@ -142,8 +160,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -231,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,27 +298,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,10 +343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27:N37"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="10"/>
       <c r="AMI6" s="3"/>
       <c r="AMJ6" s="3"/>
@@ -388,294 +410,294 @@
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="10"/>
       <c r="AMI7" s="3"/>
       <c r="AMJ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="2" t="n">
         <v>7.582</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="2" t="n">
         <v>8.687</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="2" t="n">
         <v>5.828</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="2" t="n">
         <v>7.158</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="2" t="n">
         <v>5.922</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="2" t="n">
         <v>7.81</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="2" t="n">
         <v>8.196</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="2" t="n">
         <v>5.662</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="2" t="n">
         <v>9.786</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="2" t="n">
         <v>-5.877</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="2" t="n">
         <v>-4.925</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="2" t="n">
         <v>-5.969</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="2" t="n">
         <v>-5.671</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="2" t="n">
         <v>-6.124</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="2" t="n">
         <v>-6.511</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="17" t="n">
         <v>-6.8</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="17" t="n">
         <v>-6.585</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="2" t="n">
         <v>-6.358</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17" t="n">
+      <c r="B27" s="2" t="n">
         <v>-5.97</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -686,7 +708,7 @@
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="2" t="n">
         <v>-5.445</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -697,7 +719,7 @@
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="17" t="n">
+      <c r="B29" s="2" t="n">
         <v>-6.519</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -708,7 +730,7 @@
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="17" t="n">
+      <c r="B30" s="2" t="n">
         <v>-4.094</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -719,7 +741,7 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="17" t="n">
+      <c r="B31" s="2" t="n">
         <v>-7.285</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -730,7 +752,7 @@
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="17" t="n">
+      <c r="B32" s="2" t="n">
         <v>-5.612</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -741,7 +763,7 @@
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="17" t="n">
+      <c r="B33" s="2" t="n">
         <v>-6.101</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -752,7 +774,7 @@
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="2" t="n">
         <v>-6.62</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -763,7 +785,7 @@
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="17" t="n">
+      <c r="B35" s="2" t="n">
         <v>-4.964</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -774,10 +796,76 @@
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="2" t="n">
         <v>-7.778</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="18" t="n">
+        <v>-4.816</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="18" t="n">
+        <v>-6.745</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="18" t="n">
+        <v>-7.004</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="18" t="n">
+        <v>-7.481</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="18" t="n">
+        <v>-7.474</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="18" t="n">
+        <v>-5.845</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
-    <t xml:space="preserve">available</t>
+    <t xml:space="preserve">on hold</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SK82_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SK82_27</t>
   </si>
 </sst>
 </file>
@@ -343,10 +349,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ42"/>
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,7 +813,7 @@
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="18" t="n">
+      <c r="B37" s="2" t="n">
         <v>-4.816</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -818,7 +824,7 @@
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="18" t="n">
+      <c r="B38" s="2" t="n">
         <v>-6.745</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -829,7 +835,7 @@
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="18" t="n">
+      <c r="B39" s="2" t="n">
         <v>-7.004</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -840,7 +846,7 @@
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="18" t="n">
+      <c r="B40" s="2" t="n">
         <v>-7.481</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -851,7 +857,7 @@
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="18" t="n">
+      <c r="B41" s="2" t="n">
         <v>-7.474</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -862,12 +868,62 @@
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="18" t="n">
+      <c r="B42" s="2" t="n">
         <v>-5.845</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="18" t="n">
+        <v>-6.425</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="18" t="n">
+        <v>-4.336</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_18</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_1</t>
@@ -255,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,10 +349,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ53"/>
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,7 +580,7 @@
       <c r="A17" s="13"/>
       <c r="C17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="15"/>
       <c r="H17" s="1"/>
     </row>
@@ -569,13 +589,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-5.877</v>
+        <v>5.25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="15"/>
       <c r="H18" s="1"/>
     </row>
@@ -584,12 +603,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-4.925</v>
+        <v>4.617</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="15"/>
       <c r="H19" s="1"/>
@@ -599,13 +617,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-5.969</v>
+        <v>7.336</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="15"/>
       <c r="H20" s="1"/>
     </row>
@@ -614,13 +631,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-5.671</v>
+        <v>7.717</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="15"/>
       <c r="H21" s="1"/>
     </row>
@@ -629,236 +645,246 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-6.124</v>
+        <v>4.326</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="15"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-6.511</v>
+        <v>7.225</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>8</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="15"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="17" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>7.206</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="15"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17" t="n">
-        <v>-6.585</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>6.973</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="15"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>-6.358</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="15"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>-5.877</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>-4.925</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>-5.969</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>-5.97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B35" s="2" t="n">
+        <v>-5.671</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>-5.445</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B36" s="2" t="n">
+        <v>-6.124</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>-6.519</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>-4.094</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B37" s="2" t="n">
+        <v>-6.511</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>-7.285</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B38" s="17" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>-5.612</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>-6.101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="B39" s="17" t="n">
+        <v>-6.585</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>-6.62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>-4.964</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>-7.778</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>-4.816</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>-6.745</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>-7.004</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B40" s="2" t="n">
-        <v>-7.481</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>-6.358</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-7.474</v>
+        <v>-5.97</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -866,10 +892,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-5.845</v>
+        <v>-5.445</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -877,10 +903,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="18" t="n">
-        <v>-6.425</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>-6.519</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -888,42 +914,196 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>-4.094</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>-7.285</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>-5.612</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>-6.101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>-6.62</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>-4.964</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="18" t="n">
+      <c r="B50" s="2" t="n">
+        <v>-7.778</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>-4.816</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>-6.745</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>-7.004</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>-7.481</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>-7.474</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>-5.845</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>-6.425</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>-4.336</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">2SJ28_9</t>
   </si>
   <si>
+    <t xml:space="preserve">2SJ28_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">2SJ28_11</t>
   </si>
   <si>
@@ -95,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_20</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_1</t>
@@ -193,7 +202,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -230,6 +239,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <strike val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -279,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,11 +358,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,10 +387,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ67"/>
+  <dimension ref="A1:AMJ64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18:B25"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,8 +595,15 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="1"/>
       <c r="G17" s="15"/>
@@ -586,7 +611,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>5.25</v>
@@ -600,7 +625,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>4.617</v>
@@ -614,7 +639,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>7.336</v>
@@ -628,7 +653,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>7.717</v>
@@ -642,7 +667,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>4.326</v>
@@ -656,7 +681,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>7.225</v>
@@ -670,7 +695,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>7.206</v>
@@ -684,7 +709,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>6.973</v>
@@ -697,17 +722,29 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>4.376</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="15"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>5.757</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="15"/>
       <c r="H27" s="1"/>
@@ -716,29 +753,50 @@
       <c r="A28" s="13"/>
       <c r="C28" s="13"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="15"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>-5.877</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="15"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>-4.925</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="1"/>
       <c r="G30" s="15"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>-5.969</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
@@ -746,13 +804,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-5.877</v>
+        <v>-5.671</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="13"/>
@@ -761,43 +819,43 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-4.925</v>
+        <v>-6.124</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="15"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-5.969</v>
+        <v>-6.511</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="15"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>-5.671</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>8</v>
+      <c r="A35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="18" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="13"/>
@@ -805,14 +863,14 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>-6.124</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
+      <c r="A36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18" t="n">
+        <v>-6.585</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="13"/>
@@ -821,13 +879,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-6.511</v>
+        <v>-6.358</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="1"/>
@@ -835,56 +893,44 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="17" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="17" t="n">
-        <v>-6.585</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>-5.445</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>35</v>
+      <c r="A40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-6.358</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="1"/>
+        <v>-6.519</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-5.97</v>
+        <v>-4.094</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -892,10 +938,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-5.445</v>
+        <v>-7.285</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -903,10 +949,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-6.519</v>
+        <v>-5.612</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -914,10 +960,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-4.094</v>
+        <v>-6.101</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -925,10 +971,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-7.285</v>
+        <v>-6.62</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -936,10 +982,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-5.612</v>
+        <v>-4.964</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -947,10 +993,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-6.101</v>
+        <v>-7.778</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -958,10 +1004,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-6.62</v>
+        <v>-4.816</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -969,10 +1015,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-4.964</v>
+        <v>-6.745</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -980,10 +1026,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-7.778</v>
+        <v>-7.004</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -991,10 +1037,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-4.816</v>
+        <v>-7.481</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -1002,10 +1048,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-6.745</v>
+        <v>-7.474</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -1013,10 +1059,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-7.004</v>
+        <v>-5.845</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -1024,10 +1070,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-7.481</v>
+        <v>-6.425</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -1035,47 +1081,23 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-7.474</v>
+        <v>-4.336</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>-5.845</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>-6.425</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>-4.336</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3"/>
@@ -1087,23 +1109,14 @@
       <c r="B62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C64" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sony_2SJ28_2SK82_list.xlsx
+++ b/Sony_2SJ28_2SK82_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t xml:space="preserve">Sony 2SJ28 and 2SK82 VFET List</t>
   </si>
@@ -40,21 +40,18 @@
     <t xml:space="preserve">2SJ28_1</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved dh</t>
+    <t xml:space="preserve">sold </t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
-    <t xml:space="preserve">on hold</t>
+    <t xml:space="preserve">available</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved</t>
-  </si>
-  <si>
     <t xml:space="preserve">2SJ28_4</t>
   </si>
   <si>
@@ -121,16 +118,10 @@
     <t xml:space="preserve">2SK82_5</t>
   </si>
   <si>
-    <t xml:space="preserve">sold ha</t>
-  </si>
-  <si>
     <t xml:space="preserve">2SK82_6</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sold ra</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_8</t>
@@ -202,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -239,11 +230,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <strike val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,27 +332,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,438 +449,438 @@
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="14" t="n">
         <v>7.582</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>8.687</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>5.828</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>7.158</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="C11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
+      <c r="A12" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>5.922</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="n">
         <v>7.81</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>14</v>
+      <c r="A14" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>8.196</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>15</v>
+      <c r="A15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>5.662</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
+      <c r="A16" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>9.786</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="16" t="n">
-        <v>4.925</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>19</v>
+      <c r="A19" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>4.617</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>20</v>
+      <c r="A20" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>7.336</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>21</v>
+      <c r="A21" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>7.717</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>22</v>
+      <c r="A22" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>4.326</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>23</v>
+      <c r="A23" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>7.225</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>24</v>
+      <c r="A24" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>7.206</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
+      <c r="A25" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>6.973</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>26</v>
+      <c r="A26" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>4.376</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>27</v>
+      <c r="A27" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>5.757</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>28</v>
+      <c r="A29" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>-5.877</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>29</v>
+      <c r="A30" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>-4.925</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="14"/>
+      <c r="C30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>30</v>
+      <c r="A31" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>-5.969</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>31</v>
+      <c r="A32" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>-5.671</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="n">
         <v>-6.124</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="n">
+        <v>-6.511</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>-6.511</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
+      <c r="B36" s="14" t="n">
+        <v>-6.585</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B35" s="18" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="18" t="n">
-        <v>-6.585</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>-6.358</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="14"/>
+      <c r="C37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>-5.97</v>
@@ -905,18 +891,18 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>-5.445</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>-6.519</v>
@@ -927,18 +913,18 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>-4.094</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>-7.285</v>
@@ -949,18 +935,18 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>-5.612</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>-6.101</v>
@@ -971,18 +957,18 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>-6.62</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>-4.964</v>
@@ -993,18 +979,18 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>-7.778</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>-4.816</v>
@@ -1015,18 +1001,18 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>-6.745</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>-7.004</v>
@@ -1037,18 +1023,18 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>-7.481</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>-7.474</v>
@@ -1059,18 +1045,18 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>-5.845</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>-6.425</v>
@@ -1081,12 +1067,12 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>-4.336</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="16" t="s">
         <v>8</v>
       </c>
     </row>
